--- a/mathTransformed/HMPSTT_(2017-10-23)_58_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-10-23)_58_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S KodiyalaGubbi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Jnanapeeta High School Chikkanayakanahalli</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S M H S Kora</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Tumkuru</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>S S P U C High School SectionB H Road</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S Kyathsandra</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>S R H S KonehallyTiptur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>K N D H S HuliyarChikkanayakanahalli</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -672,6 +712,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. High School AlburTiptur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -699,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S HulikalTuruvekere</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -726,6 +776,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S NeralekereGubbi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -753,6 +808,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Sri Bhyraveswara RuralHigh School Bugudanahalli</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -778,7 +838,8 @@
           <t>HEMALATHA K R</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Niveditha High School Kyathsandra Tumkur</t>
         </is>
@@ -807,6 +868,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Sree Siddaganga Rural High School Halanur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -831,6 +897,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>R S M T High School</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -858,6 +929,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S HonnashettyhallyGubbi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -885,6 +961,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G P U C(H S) Huliyar – KenkereChikkanayakanahalli</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -912,6 +993,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S ThyagaturGubbi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -939,6 +1025,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S Yalagalavadi</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Kunigal</t>
         </is>
       </c>
@@ -954,7 +1045,8 @@
           <t>Tumkur.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>
@@ -983,6 +1075,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Sri Someshwara High School Dombarana HalliTuruvekere</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1008,7 +1105,8 @@
           <t>KUMARANAIK R</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Sri Swarnamba High School Honnudike Tumkur</t>
         </is>
@@ -1037,6 +1135,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Sree Siddaganga Rural High School</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1064,6 +1167,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G J C Biligere Tiptur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1091,6 +1199,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S R S H S BelaguliChikkanayakanahalli</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1118,6 +1231,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S Sampige Hosahally Turuvekere</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1145,6 +1263,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G J C KadabaGubbi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1172,6 +1295,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Government High SchoolSanthemavathurKunigal</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1199,6 +1327,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S AjjanahalliTuruvekere</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1226,6 +1359,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Siddaganga High (SSPUC) School B H Road</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1253,6 +1391,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S KodagihalliTuruvekere</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1280,6 +1423,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>B R H S Beladhara</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1304,6 +1452,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Sri Adarsha High SchoolKonthihally</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1331,6 +1484,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G J C Dandinashivara Turvekere</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1358,6 +1516,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Govt. High SchoolAlkereKunigal</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1385,6 +1548,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S Halepalya Tiptur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1410,7 +1578,8 @@
           <t>PARAMESHA B S</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>S B J C Hullekere Dandinshivra</t>
         </is>
@@ -1428,6 +1597,11 @@
         </is>
       </c>
       <c r="F39" t="inlineStr">
+        <is>
+          <t>Turvekere</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>
@@ -1456,6 +1630,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G J C Nedasale</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Kunigal Tumkur</t>
         </is>
       </c>
@@ -1483,6 +1662,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G J C (HS)NagasandraKunigal</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1510,6 +1694,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Sree Swarnamba High School</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Honnudike Tumkur</t>
         </is>
       </c>
@@ -1537,6 +1726,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>M G G P U C (High School Section) Kunigal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1564,6 +1758,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. High School BajaguruTiptur</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1591,6 +1790,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Siddaganga Composite PU College (High School Section) B H Road</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1618,6 +1822,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Govt. High School MuddanahalliTuruvekere</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1642,6 +1851,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G J C Gubbi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1669,6 +1883,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H S K Kallahalli Gubbi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1696,6 +1915,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S TadasurTiptur</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1723,6 +1947,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Government High SchoolAremallenahalliTuruvekere</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1750,6 +1979,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G G J C Tiptur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1777,6 +2011,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Govt. Composite PU College Oorukere</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1804,6 +2043,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S KondliGubbi</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1831,6 +2075,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>G H S MadenahalliGubbi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1858,6 +2107,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>Nehru Vidya Shalam Mayasandra T B Turuvekere</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1885,6 +2139,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>G J C KadabaGubbi</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1910,7 +2169,8 @@
           <t>TEJASVI S S</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Govt. High School Gungurumele</t>
         </is>
@@ -1928,6 +2188,11 @@
         </is>
       </c>
       <c r="F58" t="inlineStr">
+        <is>
+          <t>Tiptur</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>
@@ -1954,7 +2219,8 @@
           <t>UMESH H</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>S A S PU College C T Kere Tumkur</t>
         </is>
@@ -1983,6 +2249,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>G H S ChottanahalliKunigal</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -2010,6 +2281,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>G H S Shivara Tiptur</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -2037,6 +2313,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>Vivekananda High SchoolVinoba Nagar</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -2063,6 +2344,11 @@
         </is>
       </c>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>Govt. High School ValagerepuraKunigal</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-10-23)_58_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-10-23)_58_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,6 @@
           <t>HEMALATHA K R</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>Niveditha High School Kyathsandra Tumkur</t>
@@ -873,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -902,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -934,7 +933,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -966,7 +965,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -998,7 +997,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1045,10 +1044,9 @@
           <t>Tumkur.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1078,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1103,6 @@
           <t>KUMARANAIK R</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>Sri Swarnamba High School Honnudike Tumkur</t>
@@ -1140,7 +1137,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1169,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1201,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1233,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1265,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1297,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1329,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1361,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1393,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1425,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1454,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1486,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1518,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1550,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1575,6 @@
           <t>PARAMESHA B S</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>S B J C Hullekere Dandinshivra</t>
@@ -1603,7 +1599,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1663,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1727,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1759,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1791,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1823,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1852,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1884,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1916,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1948,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1980,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2012,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2044,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2076,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2108,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2140,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2165,6 @@
           <t>TEJASVI S S</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>Govt. High School Gungurumele</t>
@@ -2194,7 +2189,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2214,6 @@
           <t>UMESH H</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>S A S PU College C T Kere Tumkur</t>
@@ -2254,7 +2248,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2280,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2312,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2344,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2017-10-23)_58_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-10-23)_58_4.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tumkuru</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Niveditha High School Kyathsandra Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Kunigal</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sri Swarnamba High School Honnudike Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>S B J C Hullekere Dandinshivra</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Kunigal Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Honnudike Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Govt. High School Gungurumele</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>S A S PU College C T Kere Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
